--- a/biology/Zoologie/Dercetis_triqueter/Dercetis_triqueter.xlsx
+++ b/biology/Zoologie/Dercetis_triqueter/Dercetis_triqueter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dercetis linguifer, Dercetis tenuis, Benthesikyme triqueter
 Dercetis triqueter est une espèce fossile de poissons à nageoires rayonnées de la famille fossile des Dercetidae (ordre des Aulopiformes).
@@ -512,25 +524,131 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Dercetis triqueter est décrite en 1850 par le paléontologue français François-Jules Pictet de la Rive en même temps que les espèces Dercetis linguifer et Dercetis tenuis[1],[2].
-Synonymes
-Dercetis triqueter a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dercetis triqueter est décrite en 1850 par le paléontologue français François-Jules Pictet de la Rive en même temps que les espèces Dercetis linguifer et Dercetis tenuis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dercetis_triqueter</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dercetis_triqueter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dercetis triqueter a pour synonymes :
 Benthesikyme triqueter (Pictet, 1850)
 Dercetis linguifer Pictet, 1850
 Dercetis tenuis Pictet, 1850
 Leptotrachelus triqueter (Pictet, 1850)
-Dercetis linguifer est déclarée synonyme en 1969 par Peter C. Goody (d) et repris en 2023 par Mori Chida (d) et al.[2].
-Dercetis tenuis est déclarée synonyme en 2023 par Chida et al.[2].
-L'espèce Dercetis triqueter est recombinée en Leptotrachelus triqueter en 1866 par François-Jules Pictet et Aloïs Humbert, en 1887 par Davis et en 1901 par Arthur S. Woodward et finalement recombinée en Benthesikyme triqueter en 2021 par Jesús Alvarado-Ortega (d) et Jesús A. Díaz-Cruz (d)[2].
-Finalement cette espèce est conservée dans le genre Dercetis en 2023 par les paléontologues Mori Chida (d), Donald B. Brinkman (d) et Alison M. Murray (d)[3],[2].
-Publication originale
-[1850] François-Jules Pictet de la Rive, Description de quelques Poissons Fossiles du Mont Liban, 1850, 1-59 p. (lire en ligne). 
-Fossiles
-Selon Paleobiology Database                   (12 avril 2024)[2], le nombre de collections de fossiles référencées est de deux :
+Dercetis linguifer est déclarée synonyme en 1969 par Peter C. Goody (d) et repris en 2023 par Mori Chida (d) et al..
+Dercetis tenuis est déclarée synonyme en 2023 par Chida et al..
+L'espèce Dercetis triqueter est recombinée en Leptotrachelus triqueter en 1866 par François-Jules Pictet et Aloïs Humbert, en 1887 par Davis et en 1901 par Arthur S. Woodward et finalement recombinée en Benthesikyme triqueter en 2021 par Jesús Alvarado-Ortega (d) et Jesús A. Díaz-Cruz (d).
+Finalement cette espèce est conservée dans le genre Dercetis en 2023 par les paléontologues Mori Chida (d), Donald B. Brinkman (d) et Alison M. Murray (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dercetis_triqueter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dercetis_triqueter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> François-Jules Pictet de la Rive, Description de quelques Poissons Fossiles du Mont Liban, 1850, 1-59 p. (lire en ligne). </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dercetis_triqueter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dercetis_triqueter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (12 avril 2024), le nombre de collections de fossiles référencées est de deux :
 Santonien supérieur au Maastrichtien inférieur du Crétacé supérieur, soit datées de 85,8 à 66 Ma avant notre ère :
-en Belgique une collection, au Liban une collection exposée au MNHN[4].</t>
+en Belgique une collection, au Liban une collection exposée au MNHN.</t>
         </is>
       </c>
     </row>
